--- a/PRC.xlsx
+++ b/PRC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\61693\Desktop\Panasonic\project_oct\Project_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB10CB61-FA8F-4764-B189-61FD335C1C26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86165C9A-9F0B-4C6C-AE6E-E51E91CFA9A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4810" yWindow="4240" windowWidth="16920" windowHeight="10640" xr2:uid="{2CFB3B8B-50E1-4174-969D-63782635CD2B}"/>
+    <workbookView xWindow="3110" yWindow="1230" windowWidth="16920" windowHeight="10640" xr2:uid="{2CFB3B8B-50E1-4174-969D-63782635CD2B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,9 +39,6 @@
     <t>Minimum Filter Efficiency(ab)</t>
   </si>
   <si>
-    <t>Minimum total ach</t>
-  </si>
-  <si>
     <t>Nursing Unit</t>
   </si>
   <si>
@@ -110,9 +107,6 @@
     <t>13/NR</t>
   </si>
   <si>
-    <t>Minimum outdoor ach</t>
-  </si>
-  <si>
     <t>Newborn nursery</t>
   </si>
   <si>
@@ -162,6 +156,14 @@
   </si>
   <si>
     <t>_________________________</t>
+  </si>
+  <si>
+    <t>Minimum 
+total ach</t>
+  </si>
+  <si>
+    <t>Minimum 
+outdoor ach</t>
   </si>
 </sst>
 </file>
@@ -197,12 +199,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -519,15 +524,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBE80FDE-9BD3-428B-BAE1-4A2C32DCBBC9}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="26.08984375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" customWidth="1"/>
+    <col min="3" max="3" width="13.08984375" style="2" customWidth="1"/>
     <col min="4" max="4" width="20.7265625" customWidth="1"/>
     <col min="5" max="5" width="25.26953125" customWidth="1"/>
     <col min="6" max="6" width="33.1796875" bestFit="1" customWidth="1"/>
@@ -536,56 +541,56 @@
   <sheetData>
     <row r="1" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>24</v>
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>12</v>
@@ -594,118 +599,124 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" t="s">
         <v>21</v>
       </c>
-      <c r="E3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="G3" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>12</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C10" s="2">
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B12">
         <v>4</v>
@@ -714,44 +725,44 @@
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B13">
         <v>10</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B14">
         <v>6</v>
@@ -760,21 +771,21 @@
         <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B15">
         <v>6</v>
@@ -783,13 +794,13 @@
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/PRC.xlsx
+++ b/PRC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\61693\Desktop\Panasonic\project_oct\Project_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86165C9A-9F0B-4C6C-AE6E-E51E91CFA9A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D494DD61-3B8E-4F46-9B34-BAFC7C4F7FF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3110" yWindow="1230" windowWidth="16920" windowHeight="10640" xr2:uid="{2CFB3B8B-50E1-4174-969D-63782635CD2B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14800" xr2:uid="{2CFB3B8B-50E1-4174-969D-63782635CD2B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="43">
   <si>
     <t>Minimum Filter Efficiency(ab)</t>
   </si>
@@ -58,9 +58,6 @@
   </si>
   <si>
     <t>School Classrooms</t>
-  </si>
-  <si>
-    <t>Apartment Building</t>
   </si>
   <si>
     <t>Doctor Office</t>
@@ -164,6 +161,12 @@
   <si>
     <t>Minimum 
 outdoor ach</t>
+  </si>
+  <si>
+    <t>Multifamily Housing</t>
+  </si>
+  <si>
+    <t>—</t>
   </si>
 </sst>
 </file>
@@ -525,7 +528,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="F12" sqref="F12:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -544,25 +547,25 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
@@ -570,22 +573,25 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>17</v>
+      <c r="H2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
@@ -599,16 +605,19 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" t="s">
         <v>20</v>
       </c>
-      <c r="E3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="G3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>22</v>
+      <c r="H3" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
@@ -619,55 +628,157 @@
         <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="D4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
       <c r="C5" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="D5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
       <c r="C6" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>7</v>
       </c>
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
       <c r="C7" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="D7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>41</v>
+      </c>
+      <c r="B8" t="s">
+        <v>42</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="D8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>12</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="D9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>6</v>
@@ -676,47 +787,50 @@
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="H10" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" t="s">
         <v>38</v>
       </c>
-      <c r="C11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" t="s">
-        <v>39</v>
-      </c>
       <c r="E11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12">
         <v>4</v>
@@ -725,44 +839,50 @@
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="F12" t="s">
+        <v>42</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13">
         <v>10</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" t="s">
         <v>27</v>
-      </c>
-      <c r="E13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H13" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14">
         <v>6</v>
@@ -771,21 +891,24 @@
         <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>33</v>
+        <v>32</v>
+      </c>
+      <c r="F14" t="s">
+        <v>42</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15">
         <v>6</v>
@@ -794,13 +917,16 @@
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="F15" t="s">
+        <v>42</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/PRC.xlsx
+++ b/PRC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\61693\Desktop\Panasonic\project_oct\Project_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D494DD61-3B8E-4F46-9B34-BAFC7C4F7FF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81FF613D-9491-4D6C-8567-CC420B1B4D7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14800" xr2:uid="{2CFB3B8B-50E1-4174-969D-63782635CD2B}"/>
   </bookViews>
@@ -34,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="43">
-  <si>
-    <t>Minimum Filter Efficiency(ab)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="36">
   <si>
     <t>Nursing Unit</t>
   </si>
@@ -67,16 +64,6 @@
   </si>
   <si>
     <t>Hospital Rooms</t>
-  </si>
-  <si>
-    <t>Unoccupied Turndown</t>
-  </si>
-  <si>
-    <t>Pressure Relationship
- to Adjacent Areas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Temperature control F/C </t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -95,9 +82,6 @@
     <t>MAX 60</t>
   </si>
   <si>
-    <t>Negative/NR</t>
-  </si>
-  <si>
     <t>MAX 60/NR</t>
   </si>
   <si>
@@ -116,15 +100,6 @@
     <t>Patient toilet room</t>
   </si>
   <si>
-    <t>Negative</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>8/14</t>
   </si>
   <si>
@@ -152,21 +127,24 @@
     <t>_____________________</t>
   </si>
   <si>
-    <t>_________________________</t>
-  </si>
-  <si>
-    <t>Minimum 
+    <t>Multifamily Housing</t>
+  </si>
+  <si>
+    <t>—</t>
+  </si>
+  <si>
+    <t>Min 
 total ach</t>
   </si>
   <si>
-    <t>Minimum 
+    <t>Min 
 outdoor ach</t>
   </si>
   <si>
-    <t>Multifamily Housing</t>
-  </si>
-  <si>
-    <t>—</t>
+    <t xml:space="preserve">Temp control F/C </t>
+  </si>
+  <si>
+    <t>Min Filter Efficiency(ab)</t>
   </si>
 </sst>
 </file>
@@ -525,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBE80FDE-9BD3-428B-BAE1-4A2C32DCBBC9}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12:F15"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -536,67 +514,54 @@
     <col min="1" max="1" width="18.36328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.1796875" customWidth="1"/>
     <col min="3" max="3" width="13.08984375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.7265625" customWidth="1"/>
-    <col min="5" max="5" width="25.26953125" customWidth="1"/>
-    <col min="6" max="6" width="33.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.26953125" customWidth="1"/>
+    <col min="5" max="5" width="33.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.54296875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="2" t="s">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>0</v>
-      </c>
-      <c r="H1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>1</v>
       </c>
       <c r="B3">
         <v>12</v>
@@ -605,180 +570,138 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4">
         <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="F4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="E6" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="F6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6" t="s">
-        <v>42</v>
-      </c>
-      <c r="H6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" t="s">
-        <v>42</v>
-      </c>
-      <c r="H8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>8</v>
       </c>
       <c r="B9">
         <v>12</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="E9" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="F9" t="s">
-        <v>42</v>
-      </c>
-      <c r="G9" t="s">
-        <v>42</v>
-      </c>
-      <c r="H9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>6</v>
@@ -787,50 +710,38 @@
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F11" t="s">
-        <v>37</v>
-      </c>
-      <c r="G11" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B12">
         <v>4</v>
@@ -839,50 +750,38 @@
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E12" t="s">
         <v>31</v>
       </c>
-      <c r="F12" t="s">
-        <v>42</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F12" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B13">
         <v>10</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" t="s">
-        <v>42</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B14">
         <v>6</v>
@@ -891,24 +790,18 @@
         <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E14" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" t="s">
-        <v>42</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B15">
         <v>6</v>
@@ -916,17 +809,11 @@
       <c r="C15" s="2">
         <v>2</v>
       </c>
-      <c r="D15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" t="s">
-        <v>42</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H15" t="s">
-        <v>28</v>
+      <c r="E15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
